--- a/currentbuild/StructureDefinition-lmdi-patient.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-patient.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-patient</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>HL7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>HL7 Norge (https://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1174,7 +1174,7 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/mal/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
@@ -2065,7 +2065,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
